--- a/test/integration/project/data_laba_rugi_1.xlsx
+++ b/test/integration/project/data_laba_rugi_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="390" windowWidth="14940" windowHeight="7455" tabRatio="788" firstSheet="18" activeTab="24"/>
+    <workbookView xWindow="360" yWindow="390" windowWidth="14940" windowHeight="7455" tabRatio="788" firstSheet="16" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="fakturbeli" sheetId="61" r:id="rId1"/>
@@ -33,12 +33,15 @@
     <sheet name="penyesuaianstok" sheetId="84" r:id="rId24"/>
     <sheet name="penyesuaianstok_items" sheetId="85" r:id="rId25"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="145">
   <si>
     <t>id</t>
   </si>
@@ -2903,7 +2906,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7000</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>700</v>
@@ -2924,8 +2927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3057,6 +3060,9 @@
       <c r="S2">
         <v>1</v>
       </c>
+      <c r="T2">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -3101,6 +3107,9 @@
       <c r="S3">
         <v>1</v>
       </c>
+      <c r="T3">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -3144,6 +3153,9 @@
       </c>
       <c r="S4">
         <v>1</v>
+      </c>
+      <c r="T4">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3496,10 +3508,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3585,6 +3597,57 @@
       </c>
       <c r="E4">
         <v>3000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1">
+        <v>41976</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1">
+        <v>41976</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1">
+        <v>41976</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/test/integration/project/data_laba_rugi_1.xlsx
+++ b/test/integration/project/data_laba_rugi_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="390" windowWidth="14940" windowHeight="7455" tabRatio="788" firstSheet="16" activeTab="24"/>
+    <workbookView xWindow="360" yWindow="390" windowWidth="14940" windowHeight="7455" tabRatio="788" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="fakturbeli" sheetId="61" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="144">
   <si>
     <t>id</t>
   </si>
@@ -248,9 +248,6 @@
   </si>
   <si>
     <t>FakturJual_id</t>
-  </si>
-  <si>
-    <t>gudang</t>
   </si>
   <si>
     <t>sequence_name</t>
@@ -863,7 +860,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1012,7 +1009,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" activeCellId="1" sqref="F1:F1048576 D1:D1048576"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1063,10 +1060,10 @@
         <v>28</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1074,7 +1071,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" s="1">
         <v>41976</v>
@@ -1089,7 +1086,7 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1103,7 +1100,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D3" s="1">
         <v>41988</v>
@@ -1118,7 +1115,7 @@
         <v>5</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -1132,7 +1129,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D4" s="1">
         <v>41992</v>
@@ -1147,7 +1144,7 @@
         <v>5</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -1177,7 +1174,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -1186,7 +1183,7 @@
         <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1241,7 +1238,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" activeCellId="2" sqref="D1:D1048576 J1 J1:J1048576"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1276,16 +1273,16 @@
         <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>10</v>
@@ -1311,16 +1308,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" t="s">
         <v>111</v>
-      </c>
-      <c r="C2" t="s">
-        <v>112</v>
       </c>
       <c r="D2" s="1">
         <v>41976</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
@@ -1332,7 +1329,7 @@
         <v>5</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1340,16 +1337,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D3" s="1">
         <v>41998</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I3" t="s">
         <v>12</v>
@@ -1361,7 +1358,7 @@
         <v>5</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -1369,16 +1366,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" s="1">
         <v>42000</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
@@ -1390,7 +1387,7 @@
         <v>5</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -1414,7 +1411,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -1423,7 +1420,7 @@
         <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1648,16 +1645,16 @@
         <v>700</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" t="s">
         <v>116</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>117</v>
-      </c>
-      <c r="J2" t="s">
-        <v>118</v>
       </c>
       <c r="K2" s="1">
         <v>41974</v>
@@ -1674,25 +1671,25 @@
         <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" t="s">
         <v>119</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>120</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J3" t="s">
         <v>121</v>
-      </c>
-      <c r="I3" t="s">
-        <v>102</v>
-      </c>
-      <c r="J3" t="s">
-        <v>122</v>
       </c>
       <c r="K3" s="1">
         <v>41976</v>
@@ -1712,22 +1709,22 @@
         <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" t="s">
         <v>123</v>
-      </c>
-      <c r="G4" t="s">
-        <v>124</v>
       </c>
       <c r="H4" t="s">
         <v>65</v>
       </c>
       <c r="I4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K4" s="1">
         <v>41981</v>
@@ -1744,25 +1741,25 @@
         <v>600</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" t="s">
         <v>125</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>126</v>
       </c>
-      <c r="H5" t="s">
-        <v>127</v>
-      </c>
       <c r="I5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K5" s="1">
         <v>41988</v>
@@ -1779,25 +1776,25 @@
         <v>200</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6" t="s">
         <v>128</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>129</v>
       </c>
-      <c r="H6" t="s">
-        <v>130</v>
-      </c>
       <c r="I6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K6" s="1">
         <v>41992</v>
@@ -1817,22 +1814,22 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7" t="s">
         <v>131</v>
-      </c>
-      <c r="G7" t="s">
-        <v>132</v>
       </c>
       <c r="H7" t="s">
         <v>66</v>
       </c>
       <c r="I7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K7" s="1">
         <v>41998</v>
@@ -1852,22 +1849,22 @@
         <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G8" t="s">
         <v>133</v>
-      </c>
-      <c r="G8" t="s">
-        <v>134</v>
       </c>
       <c r="H8" t="s">
         <v>67</v>
       </c>
       <c r="I8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K8" s="1">
         <v>42000</v>
@@ -1886,8 +1883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2006,7 +2003,7 @@
         <v>41976</v>
       </c>
       <c r="O2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -2086,7 +2083,7 @@
         <v>57</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>22</v>
@@ -2097,7 +2094,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F2" s="1">
         <v>41976</v>
@@ -2132,7 +2129,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F3" s="1">
         <v>41988</v>
@@ -2167,7 +2164,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F4" s="1">
         <v>41992</v>
@@ -2222,7 +2219,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>46</v>
@@ -2345,7 +2342,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -2362,7 +2359,7 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2475,7 +2472,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2506,7 +2503,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>11</v>
@@ -2538,13 +2535,13 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H2" t="s">
         <v>141</v>
       </c>
-      <c r="H2" t="s">
-        <v>142</v>
-      </c>
       <c r="J2">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -2628,7 +2625,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2696,7 +2693,7 @@
         <v>41976</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -2771,7 +2768,7 @@
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2784,7 +2781,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2806,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>10</v>
@@ -2853,13 +2850,13 @@
         <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J2" s="1">
         <v>41974</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -2871,7 +2868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2886,7 +2883,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>54</v>
@@ -2898,7 +2895,7 @@
         <v>29</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2927,7 +2924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
@@ -3267,8 +3264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3314,7 +3311,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -3326,7 +3323,7 @@
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -3351,15 +3348,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3367,7 +3364,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3375,7 +3372,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3391,7 +3388,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -3399,7 +3396,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -3407,7 +3404,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -3415,7 +3412,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -3423,7 +3420,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -3431,7 +3428,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -3439,7 +3436,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -3447,7 +3444,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -3455,7 +3452,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -3463,7 +3460,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -3471,7 +3468,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -3479,7 +3476,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -3487,7 +3484,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -3495,7 +3492,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -3675,19 +3672,19 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>8</v>
@@ -3696,7 +3693,7 @@
         <v>9</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3709,7 +3706,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" activeCellId="1" sqref="D1:D1048576 I1:I1048576"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3744,10 +3741,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
@@ -3765,13 +3762,13 @@
         <v>27</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -3800,7 +3797,7 @@
         <v>41976.859756944446</v>
       </c>
       <c r="J2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L2">
         <v>0</v>

--- a/test/integration/project/data_laba_rugi_1.xlsx
+++ b/test/integration/project/data_laba_rugi_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="390" windowWidth="14940" windowHeight="7455" tabRatio="788" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="390" windowWidth="14940" windowHeight="7455" tabRatio="788" firstSheet="9" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="fakturbeli" sheetId="61" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="144">
   <si>
     <t>id</t>
   </si>
@@ -175,9 +175,6 @@
     <t>nomorGudang</t>
   </si>
   <si>
-    <t>tanggalItemStok</t>
-  </si>
-  <si>
     <t>listItem_ORDER</t>
   </si>
   <si>
@@ -473,6 +470,9 @@
   </si>
   <si>
     <t>PenyesuaianStok_id</t>
+  </si>
+  <si>
+    <t>saldo</t>
   </si>
 </sst>
 </file>
@@ -522,12 +522,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -885,10 +887,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>7</v>
@@ -909,7 +911,7 @@
         <v>2</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>11</v>
@@ -918,7 +920,7 @@
         <v>3</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -926,7 +928,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" s="1">
         <v>41976</v>
@@ -952,7 +954,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F3" s="1">
         <v>41988</v>
@@ -978,7 +980,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" s="1">
         <v>41992</v>
@@ -1060,10 +1062,10 @@
         <v>28</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1071,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D2" s="1">
         <v>41976</v>
@@ -1100,7 +1102,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D3" s="1">
         <v>41988</v>
@@ -1129,7 +1131,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4" s="1">
         <v>41992</v>
@@ -1174,7 +1176,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -1183,7 +1185,7 @@
         <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1273,16 +1275,16 @@
         <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>10</v>
@@ -1308,16 +1310,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" t="s">
         <v>110</v>
-      </c>
-      <c r="C2" t="s">
-        <v>111</v>
       </c>
       <c r="D2" s="1">
         <v>41976</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
@@ -1337,16 +1339,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3" s="1">
         <v>41998</v>
       </c>
       <c r="E3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I3" t="s">
         <v>12</v>
@@ -1366,16 +1368,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D4" s="1">
         <v>42000</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
@@ -1411,7 +1413,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -1420,7 +1422,7 @@
         <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1577,299 +1579,324 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>700</v>
       </c>
-      <c r="E2" t="s">
-        <v>79</v>
+      <c r="C2" s="6">
+        <v>700</v>
       </c>
       <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" t="s">
         <v>115</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>116</v>
       </c>
-      <c r="J2" t="s">
-        <v>117</v>
-      </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>41974</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>100</v>
       </c>
-      <c r="D3" t="s">
-        <v>82</v>
+      <c r="C3" s="6">
+        <v>600</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H3" t="s">
         <v>118</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>119</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K3" t="s">
         <v>120</v>
       </c>
-      <c r="I3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J3" t="s">
-        <v>121</v>
-      </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>41976</v>
       </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
         <v>-500</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" s="6">
+        <v>100</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I4" t="s">
         <v>64</v>
       </c>
-      <c r="E4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G4" t="s">
-        <v>123</v>
-      </c>
-      <c r="H4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" t="s">
-        <v>111</v>
-      </c>
       <c r="J4" t="s">
-        <v>98</v>
-      </c>
-      <c r="K4" s="1">
+        <v>110</v>
+      </c>
+      <c r="K4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L4" s="1">
         <v>41981</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
         <v>600</v>
       </c>
-      <c r="D5" t="s">
-        <v>82</v>
+      <c r="C5" s="6">
+        <v>700</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" t="s">
+        <v>123</v>
+      </c>
+      <c r="H5" t="s">
         <v>124</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>125</v>
       </c>
-      <c r="H5" t="s">
-        <v>126</v>
-      </c>
-      <c r="I5" t="s">
-        <v>102</v>
-      </c>
       <c r="J5" t="s">
-        <v>121</v>
-      </c>
-      <c r="K5" s="1">
+        <v>101</v>
+      </c>
+      <c r="K5" t="s">
+        <v>120</v>
+      </c>
+      <c r="L5" s="1">
         <v>41988</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6">
         <v>200</v>
       </c>
-      <c r="D6" t="s">
-        <v>82</v>
+      <c r="C6" s="6">
+        <v>900</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H6" t="s">
         <v>127</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>128</v>
       </c>
-      <c r="H6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I6" t="s">
-        <v>103</v>
-      </c>
       <c r="J6" t="s">
-        <v>121</v>
-      </c>
-      <c r="K6" s="1">
+        <v>102</v>
+      </c>
+      <c r="K6" t="s">
+        <v>120</v>
+      </c>
+      <c r="L6" s="1">
         <v>41992</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7">
         <v>-400</v>
       </c>
-      <c r="D7" t="s">
-        <v>64</v>
+      <c r="C7" s="6">
+        <v>500</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H7" t="s">
         <v>130</v>
       </c>
-      <c r="G7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H7" t="s">
-        <v>66</v>
-      </c>
       <c r="I7" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
-      </c>
-      <c r="K7" s="1">
+        <v>111</v>
+      </c>
+      <c r="K7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" s="1">
         <v>41998</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8">
         <v>-100</v>
       </c>
-      <c r="D8" t="s">
-        <v>64</v>
+      <c r="C8" s="6">
+        <v>400</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>131</v>
+      </c>
+      <c r="H8" t="s">
         <v>132</v>
       </c>
-      <c r="G8" t="s">
-        <v>133</v>
-      </c>
-      <c r="H8" t="s">
-        <v>67</v>
-      </c>
       <c r="I8" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
-      </c>
-      <c r="K8" s="1">
+        <v>112</v>
+      </c>
+      <c r="K8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" s="1">
         <v>42000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>6</v>
       </c>
     </row>
@@ -2003,7 +2030,7 @@
         <v>41976</v>
       </c>
       <c r="O2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -2050,10 +2077,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>7</v>
@@ -2080,10 +2107,10 @@
         <v>3</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>22</v>
@@ -2094,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F2" s="1">
         <v>41976</v>
@@ -2129,7 +2156,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F3" s="1">
         <v>41988</v>
@@ -2164,7 +2191,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F4" s="1">
         <v>41992</v>
@@ -2219,16 +2246,16 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>6</v>
@@ -2240,7 +2267,7 @@
         <v>29</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -2342,7 +2369,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -2359,7 +2386,7 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2387,16 +2414,16 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>6</v>
@@ -2408,7 +2435,7 @@
         <v>29</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -2503,7 +2530,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>11</v>
@@ -2535,10 +2562,10 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" t="s">
         <v>140</v>
-      </c>
-      <c r="H2" t="s">
-        <v>141</v>
       </c>
       <c r="J2">
         <v>-1</v>
@@ -2768,7 +2795,7 @@
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2803,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>10</v>
@@ -2850,7 +2877,7 @@
         <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J2" s="1">
         <v>41974</v>
@@ -2883,10 +2910,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
@@ -2895,7 +2922,7 @@
         <v>29</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2954,16 +2981,16 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>7</v>
@@ -2990,39 +3017,39 @@
         <v>3</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>64</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>65</v>
       </c>
       <c r="G2" s="1">
         <v>41981</v>
@@ -3063,13 +3090,13 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G3" s="1">
         <v>41998</v>
@@ -3110,13 +3137,13 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G4" s="1">
         <v>42000</v>
@@ -3180,16 +3207,16 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>6</v>
@@ -3201,7 +3228,7 @@
         <v>29</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -3264,7 +3291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -3348,15 +3375,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3364,7 +3391,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3372,7 +3399,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3388,7 +3415,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -3396,7 +3423,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -3404,7 +3431,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -3412,7 +3439,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -3420,7 +3447,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -3428,7 +3455,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -3436,7 +3463,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -3444,7 +3471,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -3452,7 +3479,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -3460,7 +3487,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -3468,7 +3495,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -3476,7 +3503,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -3484,7 +3511,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -3492,7 +3519,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -3672,19 +3699,19 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>8</v>
@@ -3693,7 +3720,7 @@
         <v>9</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3741,10 +3768,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
@@ -3762,13 +3789,13 @@
         <v>27</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -3797,7 +3824,7 @@
         <v>41976.859756944446</v>
       </c>
       <c r="J2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L2">
         <v>0</v>

--- a/test/integration/project/data_laba_rugi_1.xlsx
+++ b/test/integration/project/data_laba_rugi_1.xlsx
@@ -1680,7 +1680,7 @@
         <v>100</v>
       </c>
       <c r="C3" s="6">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E3" t="s">
         <v>81</v>
@@ -1718,7 +1718,7 @@
         <v>-500</v>
       </c>
       <c r="C4" s="6">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E4" t="s">
         <v>63</v>
@@ -1756,7 +1756,7 @@
         <v>600</v>
       </c>
       <c r="C5" s="6">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="E5" t="s">
         <v>81</v>
@@ -1794,7 +1794,7 @@
         <v>200</v>
       </c>
       <c r="C6" s="6">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="E6" t="s">
         <v>81</v>
@@ -1832,7 +1832,7 @@
         <v>-400</v>
       </c>
       <c r="C7" s="6">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E7" t="s">
         <v>63</v>
@@ -1870,7 +1870,7 @@
         <v>-100</v>
       </c>
       <c r="C8" s="6">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E8" t="s">
         <v>63</v>

--- a/test/integration/project/data_laba_rugi_1.xlsx
+++ b/test/integration/project/data_laba_rugi_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="390" windowWidth="14940" windowHeight="7455" tabRatio="788" firstSheet="9" activeTab="14"/>
+    <workbookView xWindow="360" yWindow="390" windowWidth="14940" windowHeight="7455" tabRatio="788" firstSheet="24" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="fakturbeli" sheetId="61" r:id="rId1"/>
@@ -32,6 +32,12 @@
     <sheet name="supplier" sheetId="83" r:id="rId23"/>
     <sheet name="penyesuaianstok" sheetId="84" r:id="rId24"/>
     <sheet name="penyesuaianstok_items" sheetId="85" r:id="rId25"/>
+    <sheet name="kas" sheetId="86" r:id="rId26"/>
+    <sheet name="kategorikas" sheetId="87" r:id="rId27"/>
+    <sheet name="jenistransaksikas" sheetId="88" r:id="rId28"/>
+    <sheet name="periodekas" sheetId="89" r:id="rId29"/>
+    <sheet name="periodekas_jumlahperiodik" sheetId="90" r:id="rId30"/>
+    <sheet name="periodekas_listtransaksikas" sheetId="91" r:id="rId31"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -41,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="160">
   <si>
     <t>id</t>
   </si>
@@ -473,6 +479,54 @@
   </si>
   <si>
     <t>saldo</t>
+  </si>
+  <si>
+    <t>sistem</t>
+  </si>
+  <si>
+    <t>Pendapatan Tukar</t>
+  </si>
+  <si>
+    <t>Kas Kecil</t>
+  </si>
+  <si>
+    <t>dipakaiDiLaporan</t>
+  </si>
+  <si>
+    <t>jenis</t>
+  </si>
+  <si>
+    <t>Tukar Barang</t>
+  </si>
+  <si>
+    <t>Lain-Lain</t>
+  </si>
+  <si>
+    <t>Luar Kota</t>
+  </si>
+  <si>
+    <t>Dalam Kota</t>
+  </si>
+  <si>
+    <t>listPeriodeRiwayat_id</t>
+  </si>
+  <si>
+    <t>PeriodeKas_id</t>
+  </si>
+  <si>
+    <t>jenisTransaksiKas_id</t>
+  </si>
+  <si>
+    <t>kategoriKas_id</t>
+  </si>
+  <si>
+    <t>jenis_id</t>
+  </si>
+  <si>
+    <t>listTransaksiKas_ORDER</t>
+  </si>
+  <si>
+    <t>000013-RS-KB-122014</t>
   </si>
 </sst>
 </file>
@@ -1581,7 +1635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -2939,6 +2993,471 @@
         <v>1</v>
       </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>-2</v>
+      </c>
+      <c r="B2">
+        <v>22000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1">
+        <v>41985.000011574077</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>41986.978958333333</v>
+      </c>
+      <c r="H2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1">
+        <v>41985.000011574077</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1">
+        <v>41973.000011574077</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1">
+        <v>41973.000011574077</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
+        <v>41973.000011574077</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1">
+        <v>41973.000011574077</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>-2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1">
+        <v>41973.000011574077</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1">
+        <v>41973.000011574077</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>22000</v>
+      </c>
+      <c r="D2">
+        <v>22000</v>
+      </c>
+      <c r="E2" s="1">
+        <v>41640</v>
+      </c>
+      <c r="F2" s="1">
+        <v>41670</v>
+      </c>
+      <c r="H2" s="1">
+        <v>41986.978946759256</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1">
+        <v>41986.978958333333</v>
+      </c>
+      <c r="L2">
+        <v>-2</v>
+      </c>
+      <c r="M2">
         <v>0</v>
       </c>
     </row>
@@ -3187,6 +3706,136 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>22000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2">
+        <v>22000</v>
+      </c>
+      <c r="G2">
+        <v>22000</v>
+      </c>
+      <c r="H2" s="1">
+        <v>41640</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>

--- a/test/integration/project/data_laba_rugi_1.xlsx
+++ b/test/integration/project/data_laba_rugi_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="390" windowWidth="14940" windowHeight="7455" tabRatio="788" firstSheet="24" activeTab="30"/>
+    <workbookView xWindow="360" yWindow="390" windowWidth="14940" windowHeight="7455" tabRatio="788" firstSheet="18" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="fakturbeli" sheetId="61" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="161">
   <si>
     <t>id</t>
   </si>
@@ -527,6 +527,9 @@
   </si>
   <si>
     <t>000013-RS-KB-122014</t>
+  </si>
+  <si>
+    <t>labaRugi</t>
   </si>
 </sst>
 </file>
@@ -1636,7 +1639,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2706,7 +2709,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3003,10 +3006,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3022,7 +3025,7 @@
     <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3050,8 +3053,11 @@
       <c r="I1" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-2</v>
       </c>
@@ -3076,8 +3082,11 @@
       <c r="I2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-1</v>
       </c>
@@ -3098,6 +3107,9 @@
       </c>
       <c r="I3">
         <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3759,7 +3771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/test/integration/project/data_laba_rugi_1.xlsx
+++ b/test/integration/project/data_laba_rugi_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="390" windowWidth="14940" windowHeight="7455" tabRatio="788" firstSheet="18" activeTab="25"/>
+    <workbookView xWindow="360" yWindow="390" windowWidth="14940" windowHeight="7455" tabRatio="788" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="fakturbeli" sheetId="61" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="165">
   <si>
     <t>id</t>
   </si>
@@ -530,6 +530,18 @@
   </si>
   <si>
     <t>labaRugi</t>
+  </si>
+  <si>
+    <t>FakturJualEceran</t>
+  </si>
+  <si>
+    <t>000001/122014/ECERAN</t>
+  </si>
+  <si>
+    <t>eceran</t>
+  </si>
+  <si>
+    <t>000004-SJ-KB-122014</t>
   </si>
 </sst>
 </file>
@@ -579,7 +591,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -587,6 +599,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1294,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1449,6 +1464,32 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="1">
+        <v>41977</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="1">
+        <v>41976</v>
+      </c>
+      <c r="K5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1456,9 +1497,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1521,6 +1564,20 @@
         <v>1</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>500</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
         <v>0</v>
       </c>
     </row>
@@ -3008,7 +3065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -3480,10 +3537,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3493,7 +3550,7 @@
     <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="1" bestFit="1" customWidth="1"/>
@@ -3711,6 +3768,38 @@
       </c>
       <c r="T4">
         <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G5" s="1">
+        <v>41982</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="1">
+        <v>41982</v>
+      </c>
+      <c r="J5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3850,9 +3939,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3940,6 +4031,23 @@
         <v>1</v>
       </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>500</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
         <v>0</v>
       </c>
     </row>

--- a/test/integration/project/data_laba_rugi_1.xlsx
+++ b/test/integration/project/data_laba_rugi_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="390" windowWidth="14940" windowHeight="7455" tabRatio="788" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="390" windowWidth="14940" windowHeight="7455" tabRatio="788" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="fakturbeli" sheetId="61" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="166">
   <si>
     <t>id</t>
   </si>
@@ -542,6 +542,9 @@
   </si>
   <si>
     <t>000004-SJ-KB-122014</t>
+  </si>
+  <si>
+    <t>ongkosKirimBeli</t>
   </si>
 </sst>
 </file>
@@ -1500,7 +1503,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1695,8 +1698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2022,10 +2025,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2036,21 +2039,22 @@
     <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2070,43 +2074,46 @@
         <v>15</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2126,33 +2133,36 @@
         <v>20</v>
       </c>
       <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
         <v>600</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="M2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="1">
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="1">
         <v>41976</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>133</v>
       </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
       <c r="Q2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
         <v>1</v>
       </c>
     </row>
@@ -3941,7 +3951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>

--- a/test/integration/project/data_laba_rugi_1.xlsx
+++ b/test/integration/project/data_laba_rugi_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="390" windowWidth="14940" windowHeight="7455" tabRatio="788" firstSheet="10" activeTab="14"/>
+    <workbookView xWindow="360" yWindow="390" windowWidth="14940" windowHeight="7455" tabRatio="788" firstSheet="29" activeTab="32"/>
   </bookViews>
   <sheets>
     <sheet name="fakturbeli" sheetId="61" r:id="rId1"/>
@@ -21,33 +21,32 @@
     <sheet name="pengeluaranbarang" sheetId="72" r:id="rId12"/>
     <sheet name="pengeluaranbarang_items" sheetId="73" r:id="rId13"/>
     <sheet name="periodeitemstok" sheetId="74" r:id="rId14"/>
-    <sheet name="periodeitemstok_listitem" sheetId="75" r:id="rId15"/>
-    <sheet name="produk" sheetId="76" r:id="rId16"/>
-    <sheet name="purchaseorder" sheetId="77" r:id="rId17"/>
-    <sheet name="purchaseorder_listitemfaktur" sheetId="78" r:id="rId18"/>
-    <sheet name="region" sheetId="79" r:id="rId19"/>
-    <sheet name="sales" sheetId="80" r:id="rId20"/>
-    <sheet name="satuan" sheetId="81" r:id="rId21"/>
-    <sheet name="stokproduk" sheetId="82" r:id="rId22"/>
-    <sheet name="supplier" sheetId="83" r:id="rId23"/>
-    <sheet name="penyesuaianstok" sheetId="84" r:id="rId24"/>
-    <sheet name="penyesuaianstok_items" sheetId="85" r:id="rId25"/>
-    <sheet name="kas" sheetId="86" r:id="rId26"/>
-    <sheet name="kategorikas" sheetId="87" r:id="rId27"/>
-    <sheet name="jenistransaksikas" sheetId="88" r:id="rId28"/>
-    <sheet name="periodekas" sheetId="89" r:id="rId29"/>
-    <sheet name="periodekas_jumlahperiodik" sheetId="90" r:id="rId30"/>
-    <sheet name="periodekas_listtransaksikas" sheetId="91" r:id="rId31"/>
+    <sheet name="periodeitemstok_itemstok" sheetId="92" r:id="rId15"/>
+    <sheet name="itemstok" sheetId="93" r:id="rId16"/>
+    <sheet name="produk" sheetId="76" r:id="rId17"/>
+    <sheet name="purchaseorder" sheetId="77" r:id="rId18"/>
+    <sheet name="purchaseorder_listitemfaktur" sheetId="78" r:id="rId19"/>
+    <sheet name="region" sheetId="79" r:id="rId20"/>
+    <sheet name="sales" sheetId="80" r:id="rId21"/>
+    <sheet name="satuan" sheetId="81" r:id="rId22"/>
+    <sheet name="stokproduk" sheetId="82" r:id="rId23"/>
+    <sheet name="supplier" sheetId="83" r:id="rId24"/>
+    <sheet name="penyesuaianstok" sheetId="84" r:id="rId25"/>
+    <sheet name="penyesuaianstok_items" sheetId="85" r:id="rId26"/>
+    <sheet name="kas" sheetId="86" r:id="rId27"/>
+    <sheet name="kategorikas" sheetId="87" r:id="rId28"/>
+    <sheet name="jenistransaksikas" sheetId="88" r:id="rId29"/>
+    <sheet name="periodekas" sheetId="89" r:id="rId30"/>
+    <sheet name="periodekas_jumlahperiodik" sheetId="90" r:id="rId31"/>
+    <sheet name="periodekas_transaksikas" sheetId="94" r:id="rId32"/>
+    <sheet name="transaksikas" sheetId="95" r:id="rId33"/>
   </sheets>
-  <definedNames>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="168">
   <si>
     <t>id</t>
   </si>
@@ -545,6 +544,12 @@
   </si>
   <si>
     <t>ongkosKirimBeli</t>
+  </si>
+  <si>
+    <t>listItem_id</t>
+  </si>
+  <si>
+    <t>listTransaksiKas_id</t>
   </si>
 </sst>
 </file>
@@ -594,13 +599,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1696,334 +1700,435 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>700</v>
-      </c>
-      <c r="C2" s="6">
-        <v>700</v>
-      </c>
-      <c r="F2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K2" t="s">
-        <v>116</v>
-      </c>
-      <c r="L2" s="1">
-        <v>41974</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>100</v>
-      </c>
-      <c r="C3" s="6">
-        <v>800</v>
-      </c>
-      <c r="E3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H3" t="s">
-        <v>118</v>
-      </c>
-      <c r="I3" t="s">
-        <v>119</v>
-      </c>
-      <c r="J3" t="s">
-        <v>100</v>
-      </c>
-      <c r="K3" t="s">
-        <v>120</v>
-      </c>
-      <c r="L3" s="1">
-        <v>41976</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>-500</v>
-      </c>
-      <c r="C4" s="6">
-        <v>300</v>
-      </c>
-      <c r="E4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H4" t="s">
-        <v>122</v>
-      </c>
-      <c r="I4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" t="s">
-        <v>110</v>
-      </c>
-      <c r="K4" t="s">
-        <v>97</v>
-      </c>
-      <c r="L4" s="1">
-        <v>41981</v>
-      </c>
-      <c r="M4">
+        <v>-3</v>
+      </c>
+      <c r="C4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>600</v>
-      </c>
-      <c r="C5" s="6">
-        <v>900</v>
-      </c>
-      <c r="E5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G5" t="s">
-        <v>123</v>
-      </c>
-      <c r="H5" t="s">
-        <v>124</v>
-      </c>
-      <c r="I5" t="s">
-        <v>125</v>
-      </c>
-      <c r="J5" t="s">
-        <v>101</v>
-      </c>
-      <c r="K5" t="s">
-        <v>120</v>
-      </c>
-      <c r="L5" s="1">
-        <v>41988</v>
-      </c>
-      <c r="M5">
+        <v>-4</v>
+      </c>
+      <c r="C5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6">
-        <v>200</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1100</v>
-      </c>
-      <c r="E6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G6" t="s">
-        <v>126</v>
-      </c>
-      <c r="H6" t="s">
-        <v>127</v>
-      </c>
-      <c r="I6" t="s">
-        <v>128</v>
-      </c>
-      <c r="J6" t="s">
-        <v>102</v>
-      </c>
-      <c r="K6" t="s">
-        <v>120</v>
-      </c>
-      <c r="L6" s="1">
-        <v>41992</v>
-      </c>
-      <c r="M6">
+        <v>-5</v>
+      </c>
+      <c r="C6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7">
-        <v>-400</v>
-      </c>
-      <c r="C7" s="6">
-        <v>700</v>
-      </c>
-      <c r="E7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7" t="s">
-        <v>129</v>
-      </c>
-      <c r="H7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I7" t="s">
-        <v>65</v>
-      </c>
-      <c r="J7" t="s">
-        <v>111</v>
-      </c>
-      <c r="K7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L7" s="1">
-        <v>41998</v>
-      </c>
-      <c r="M7">
+        <v>-6</v>
+      </c>
+      <c r="C7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8">
-        <v>-100</v>
-      </c>
-      <c r="C8" s="6">
-        <v>600</v>
-      </c>
-      <c r="E8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G8" t="s">
-        <v>131</v>
-      </c>
-      <c r="H8" t="s">
-        <v>132</v>
-      </c>
-      <c r="I8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J8" t="s">
-        <v>112</v>
-      </c>
-      <c r="K8" t="s">
-        <v>97</v>
-      </c>
-      <c r="L8" s="1">
-        <v>42000</v>
-      </c>
-      <c r="M8">
+        <v>-7</v>
+      </c>
+      <c r="C8">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="B2">
+        <v>700</v>
+      </c>
+      <c r="D2" s="5">
+        <v>700</v>
+      </c>
+      <c r="E2" s="1">
+        <v>41974</v>
+      </c>
+      <c r="L2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" t="s">
+        <v>114</v>
+      </c>
+      <c r="P2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>-2</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="D3" s="5">
+        <v>800</v>
+      </c>
+      <c r="E3" s="1">
+        <v>41976</v>
+      </c>
+      <c r="K3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M3" t="s">
+        <v>117</v>
+      </c>
+      <c r="N3" t="s">
+        <v>118</v>
+      </c>
+      <c r="O3" t="s">
+        <v>119</v>
+      </c>
+      <c r="P3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>-3</v>
+      </c>
+      <c r="B4">
+        <v>-500</v>
+      </c>
+      <c r="D4" s="5">
+        <v>300</v>
+      </c>
+      <c r="E4" s="1">
+        <v>41981</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" t="s">
+        <v>121</v>
+      </c>
+      <c r="N4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>-4</v>
+      </c>
+      <c r="B5">
+        <v>600</v>
+      </c>
+      <c r="D5" s="5">
+        <v>900</v>
+      </c>
+      <c r="E5" s="1">
+        <v>41988</v>
+      </c>
+      <c r="K5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L5" t="s">
+        <v>84</v>
+      </c>
+      <c r="M5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O5" t="s">
+        <v>125</v>
+      </c>
+      <c r="P5" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>-5</v>
+      </c>
+      <c r="B6">
+        <v>200</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1100</v>
+      </c>
+      <c r="E6" s="1">
+        <v>41992</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="s">
+        <v>126</v>
+      </c>
+      <c r="N6" t="s">
+        <v>127</v>
+      </c>
+      <c r="O6" t="s">
+        <v>128</v>
+      </c>
+      <c r="P6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>-6</v>
+      </c>
+      <c r="B7">
+        <v>-400</v>
+      </c>
+      <c r="D7" s="5">
+        <v>700</v>
+      </c>
+      <c r="E7" s="1">
+        <v>41998</v>
+      </c>
+      <c r="K7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="s">
+        <v>129</v>
+      </c>
+      <c r="N7" t="s">
+        <v>130</v>
+      </c>
+      <c r="O7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>-7</v>
+      </c>
+      <c r="B8">
+        <v>-100</v>
+      </c>
+      <c r="D8" s="5">
+        <v>600</v>
+      </c>
+      <c r="E8" s="1">
+        <v>42000</v>
+      </c>
+      <c r="K8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L8" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" t="s">
+        <v>131</v>
+      </c>
+      <c r="N8" t="s">
+        <v>132</v>
+      </c>
+      <c r="O8" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
@@ -2171,7 +2276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
@@ -2350,7 +2455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -2443,74 +2548,6 @@
       </c>
       <c r="H4">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1">
-        <v>41976</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2620,6 +2657,74 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1">
+        <v>41976</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2700,7 +2805,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -2771,7 +2876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -2855,7 +2960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -2927,7 +3032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -3015,7 +3120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -3071,7 +3176,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -3185,7 +3290,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
@@ -3348,7 +3453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -3432,112 +3537,6 @@
       </c>
       <c r="H3">
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>22000</v>
-      </c>
-      <c r="D2">
-        <v>22000</v>
-      </c>
-      <c r="E2" s="1">
-        <v>41640</v>
-      </c>
-      <c r="F2" s="1">
-        <v>41670</v>
-      </c>
-      <c r="H2" s="1">
-        <v>41986.978946759256</v>
-      </c>
-      <c r="I2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="1">
-        <v>41986.978958333333</v>
-      </c>
-      <c r="L2">
-        <v>-2</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3787,7 +3786,7 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>162</v>
       </c>
       <c r="G5" s="1">
@@ -3818,6 +3817,112 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>22000</v>
+      </c>
+      <c r="D2">
+        <v>22000</v>
+      </c>
+      <c r="E2" s="1">
+        <v>41640</v>
+      </c>
+      <c r="F2" s="1">
+        <v>41670</v>
+      </c>
+      <c r="H2" s="1">
+        <v>41986.978946759256</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1">
+        <v>41986.978958333333</v>
+      </c>
+      <c r="L2">
+        <v>-2</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -3866,57 +3971,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -3924,22 +4005,103 @@
         <v>-1</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>22000</v>
+      </c>
+      <c r="D2">
+        <v>22000</v>
+      </c>
+      <c r="E2" s="1">
+        <v>41640</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
         <v>159</v>
       </c>
-      <c r="E2">
-        <v>22000</v>
-      </c>
-      <c r="G2">
-        <v>22000</v>
-      </c>
-      <c r="H2" s="1">
-        <v>41640</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+      <c r="L2">
+        <v>-1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/test/integration/project/data_laba_rugi_1.xlsx
+++ b/test/integration/project/data_laba_rugi_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="390" windowWidth="14940" windowHeight="7455" tabRatio="788" firstSheet="29" activeTab="32"/>
+    <workbookView xWindow="360" yWindow="390" windowWidth="14940" windowHeight="7455" tabRatio="788" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="fakturbeli" sheetId="61" r:id="rId1"/>
@@ -41,12 +41,15 @@
     <sheet name="periodekas_transaksikas" sheetId="94" r:id="rId32"/>
     <sheet name="transaksikas" sheetId="95" r:id="rId33"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="169">
   <si>
     <t>id</t>
   </si>
@@ -550,6 +553,9 @@
   </si>
   <si>
     <t>listTransaksiKas_id</t>
+  </si>
+  <si>
+    <t>poinBerlaku</t>
   </si>
 </sst>
 </file>
@@ -3546,10 +3552,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3574,9 +3580,10 @@
     <col min="18" max="18" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
@@ -3637,8 +3644,11 @@
       <c r="T1" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -3684,8 +3694,11 @@
       <c r="T2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -3731,8 +3744,11 @@
       <c r="T3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -3778,8 +3794,11 @@
       <c r="T4">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>161</v>
       </c>
@@ -4017,7 +4036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
